--- a/DestroyViruses/Assets/Tables/TableBuffKillGen.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuffKillGen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24560" windowHeight="8360"/>
+    <workbookView windowWidth="25360" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,10 +79,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -107,9 +107,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,6 +143,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -136,13 +159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -152,10 +168,47 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,14 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -185,35 +230,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -226,22 +242,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -252,19 +252,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +330,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,151 +414,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,15 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -526,6 +517,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -546,145 +546,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1051,7 +1051,7 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E29"/>
     </sheetView>
   </sheetViews>

--- a/DestroyViruses/Assets/Tables/TableBuffKillGen.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuffKillGen.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="25360" windowHeight="9180"/>
   </bookViews>
@@ -62,7 +62,7 @@
 （连续未生成，则累加概率）</t>
   </si>
   <si>
-    <t>0~8</t>
+    <t>0~9</t>
   </si>
   <si>
     <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1)]</t>
@@ -79,10 +79,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -107,12 +107,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -128,9 +222,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,105 +236,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -252,43 +252,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,37 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,97 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +451,24 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,15 +535,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -534,157 +543,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1051,8 +1051,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1145,7 +1145,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1167,7 +1167,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1189,7 +1189,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1211,7 +1211,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1233,7 +1233,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1253,7 +1253,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1275,7 +1275,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1297,7 +1297,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1319,7 +1319,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1341,7 +1341,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1363,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="E14" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1385,7 +1385,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1407,7 +1407,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1429,7 +1429,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1451,7 +1451,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1473,7 +1473,7 @@
         <v>17</v>
       </c>
       <c r="E19" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1495,7 +1495,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1517,7 +1517,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1539,7 +1539,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1561,7 +1561,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1583,7 +1583,7 @@
         <v>17</v>
       </c>
       <c r="E24" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="E25" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1627,7 +1627,7 @@
         <v>17</v>
       </c>
       <c r="E26" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1649,7 +1649,7 @@
         <v>17</v>
       </c>
       <c r="E27" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1671,7 +1671,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1688,7 +1688,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="3">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableBuffKillGen.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuffKillGen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25360" windowHeight="9180"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -62,7 +62,7 @@
 （连续未生成，则累加概率）</t>
   </si>
   <si>
-    <t>0~9</t>
+    <t>0~8</t>
   </si>
   <si>
     <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1)]</t>
@@ -79,10 +79,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -100,7 +100,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,7 +114,114 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,53 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -182,66 +242,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -252,19 +252,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,163 +414,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,54 +451,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +487,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -543,151 +519,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -704,54 +704,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1047,20 +1047,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.2307692307692" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.0769230769231" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.3846153846154" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.2333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.075" style="2" customWidth="1"/>
+    <col min="4" max="4" width="62.3833333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="29" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
@@ -1145,7 +1145,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1167,7 +1167,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1189,7 +1189,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1211,7 +1211,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1233,7 +1233,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1253,7 +1253,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1275,7 +1275,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1297,7 +1297,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1319,7 +1319,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1341,7 +1341,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1363,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="E14" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1385,7 +1385,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1407,7 +1407,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1429,7 +1429,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1451,7 +1451,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1473,7 +1473,7 @@
         <v>17</v>
       </c>
       <c r="E19" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1495,7 +1495,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1517,7 +1517,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1539,7 +1539,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1561,7 +1561,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1583,7 +1583,7 @@
         <v>17</v>
       </c>
       <c r="E24" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="E25" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1627,7 +1627,7 @@
         <v>17</v>
       </c>
       <c r="E26" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1649,7 +1649,7 @@
         <v>17</v>
       </c>
       <c r="E27" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1671,7 +1671,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1688,7 +1688,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
     </row>
   </sheetData>
@@ -1699,7 +1699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1707,7 +1707,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1715,7 +1715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1723,7 +1723,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableBuffKillGen.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuffKillGen.xlsx
@@ -71,7 +71,7 @@
     <t>9~1000</t>
   </si>
   <si>
-    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,1),(9,1),(10,1)]</t>
+    <t>[(1,5),(2,4),(3,4),(4,5),(5,5),(6,5),(8,5),(9,5),(10,5)]</t>
   </si>
 </sst>
 </file>
@@ -100,6 +100,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -107,12 +114,112 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -128,90 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,29 +242,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -252,187 +252,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,21 +455,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -485,11 +470,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +518,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -519,175 +543,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,8 +1051,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1429,7 +1429,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="3">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1451,7 +1451,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="3">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1473,7 +1473,7 @@
         <v>17</v>
       </c>
       <c r="E19" s="3">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1495,7 +1495,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="3">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1517,7 +1517,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="3">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1539,7 +1539,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="3">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1561,7 +1561,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="3">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1583,7 +1583,7 @@
         <v>17</v>
       </c>
       <c r="E24" s="3">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="E25" s="3">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1627,7 +1627,7 @@
         <v>17</v>
       </c>
       <c r="E26" s="3">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1649,7 +1649,7 @@
         <v>17</v>
       </c>
       <c r="E27" s="3">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1671,7 +1671,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="3">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1688,7 +1688,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="3">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableBuffKillGen.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuffKillGen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="25200" windowHeight="10280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>id</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>probability</t>
+  </si>
+  <si>
+    <t>vipBuffTypePriority</t>
+  </si>
+  <si>
+    <t>vipProbability</t>
   </si>
   <si>
     <t>int</t>
@@ -62,6 +68,13 @@
 （连续未生成，则累加概率）</t>
   </si>
   <si>
+    <t>buff类型权重(VIP)</t>
+  </si>
+  <si>
+    <t>击杀生成buff概率(VIP)
+（连续未生成，则累加概率）</t>
+  </si>
+  <si>
     <t>0~8</t>
   </si>
   <si>
@@ -72,6 +85,9 @@
   </si>
   <si>
     <t>[(1,5),(2,4),(3,4),(4,5),(5,5),(6,5),(8,5),(9,5),(10,5)]</t>
+  </si>
+  <si>
+    <t>[(1,5),(2,4),(3,4),(4,5),(5,5),(6,5),(8,10),(9,10),(10,10)]</t>
   </si>
 </sst>
 </file>
@@ -79,9 +95,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -100,9 +116,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,22 +137,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,10 +192,62 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,68 +258,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -252,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +467,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,20 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,21 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -543,151 +550,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -704,54 +720,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1047,22 +1063,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.2333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.075" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.3833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.2307692307692" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.0769230769231" style="2" customWidth="1"/>
+    <col min="4" max="4" width="62.3846153846154" style="2" customWidth="1"/>
     <col min="5" max="5" width="29" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="56.5384615384615" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.6538461538462" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1081,52 +1099,64 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1136,19 +1166,23 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3">
         <v>0.002</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.002</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1158,19 +1192,23 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3">
         <v>0.002</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.002</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1180,19 +1218,23 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3">
         <v>0.002</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.002</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1202,19 +1244,23 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3">
         <v>0.002</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.002</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1224,19 +1270,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3">
         <v>0.002</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.002</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:10">
@@ -1244,19 +1294,23 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3">
         <v>0.002</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.002</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1266,19 +1320,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3">
         <v>0.002</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.002</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1288,19 +1346,23 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
         <v>-1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3">
         <v>0.002</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.002</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1310,19 +1372,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3">
         <v>-2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3">
         <v>0.002</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.002</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1332,19 +1398,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3">
         <v>-3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E13" s="3">
         <v>0.002</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.002</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1354,19 +1424,23 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3">
         <v>-4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3">
         <v>0.002</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.002</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1376,19 +1450,23 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3">
         <v>-5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3">
         <v>0.002</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.002</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1398,19 +1476,23 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3">
         <v>-6</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3">
         <v>0.002</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.002</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1420,19 +1502,23 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E17" s="3">
         <v>0.001</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.001</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1442,19 +1528,23 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E18" s="3">
         <v>0.001</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.001</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1464,19 +1554,23 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E19" s="3">
         <v>0.001</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.001</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1486,19 +1580,23 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E20" s="3">
         <v>0.001</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.001</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1508,19 +1606,23 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3">
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E21" s="3">
         <v>0.001</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.001</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1530,19 +1632,23 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3">
         <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E22" s="3">
         <v>0.001</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.001</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1552,19 +1658,23 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3">
         <v>6</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E23" s="3">
         <v>0.001</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.001</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1574,19 +1684,23 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3">
         <v>-1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E24" s="3">
         <v>0.001</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.001</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1596,19 +1710,23 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3">
         <v>-2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E25" s="3">
         <v>0.001</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.001</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1618,19 +1736,23 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3">
         <v>-3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E26" s="3">
         <v>0.001</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.001</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1640,54 +1762,70 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C27" s="3">
         <v>-4</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E27" s="3">
         <v>0.001</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.001</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C28" s="3">
         <v>-5</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E28" s="3">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3">
         <v>-6</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E29" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="3">
         <v>0.001</v>
       </c>
     </row>
@@ -1699,7 +1837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1707,7 +1845,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1715,7 +1853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1723,7 +1861,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableBuffKillGen.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuffKillGen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="10280"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -116,9 +116,93 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,72 +214,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,36 +239,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,14 +258,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -268,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,24 +459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,6 +473,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,17 +501,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +525,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -554,156 +554,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -720,54 +720,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1063,23 +1063,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.2307692307692" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.0769230769231" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.3846153846154" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.2333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.075" style="2" customWidth="1"/>
+    <col min="4" max="4" width="62.3833333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="29" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.5384615384615" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.6538461538462" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.5416666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.65" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1828,6 +1828,20 @@
       <c r="G29" s="3">
         <v>0.001</v>
       </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="3:7">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1837,7 +1851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1845,7 +1859,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1853,7 +1867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1861,7 +1875,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableBuffKillGen.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuffKillGen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="25200" windowHeight="10280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -116,9 +116,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,8 +137,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,8 +160,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,17 +199,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,82 +258,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -268,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +459,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,15 +491,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,11 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,21 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -554,156 +554,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -720,54 +720,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1063,23 +1063,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B29"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.2333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.075" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.3833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.2307692307692" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.0769230769231" style="2" customWidth="1"/>
+    <col min="4" max="4" width="62.3846153846154" style="2" customWidth="1"/>
     <col min="5" max="5" width="29" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.5416666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.65" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.5384615384615" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.6538461538462" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1828,20 +1828,6 @@
       <c r="G29" s="3">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="30" spans="3:7">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="3:7">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1851,7 +1837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1859,7 +1845,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1867,7 +1853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1875,7 +1861,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
